--- a/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296BA88-440E-4A87-98FF-EFF4ABD5A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="198">
   <si>
     <t>PERIOD</t>
   </si>
@@ -611,12 +610,30 @@
   </si>
   <si>
     <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>9/28 , 10/2/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/19,20,24/2023</t>
+  </si>
+  <si>
+    <t>10/11-13/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>10/25-27,31 - 11/3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1476,7 +1493,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1536,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1600,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1660,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1726,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1789,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1887,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1946,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +2011,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2054,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2129,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2315,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2381,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2439,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2505,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2561,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2636,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2679,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2745,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2801,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2899,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2962,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3011,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3011,26 +3028,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K248" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K248" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K253" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K253"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3042,13 +3059,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3057,14 +3074,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3368,7 +3385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3378,7 +3395,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3386,34 +3403,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K248"/>
+  <dimension ref="A2:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A56" activePane="bottomLeft"/>
+      <pane ySplit="3675" topLeftCell="A242" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="K249" sqref="K249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3453,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3456,7 +3473,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3478,7 +3495,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3486,7 +3503,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3499,7 +3516,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3516,7 +3533,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3551,7 +3568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3560,7 +3577,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.160000000000025</v>
+        <v>27.910000000000025</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3570,12 +3587,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.75</v>
+        <v>32.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3597,7 +3614,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3617,7 +3634,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3637,7 +3654,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3657,7 +3674,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3683,7 +3700,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>40878</v>
       </c>
@@ -3705,7 +3722,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>44</v>
       </c>
@@ -3727,7 +3744,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>40909</v>
       </c>
@@ -3747,7 +3764,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>40940</v>
       </c>
@@ -3769,7 +3786,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40969</v>
       </c>
@@ -3793,7 +3810,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>41000</v>
       </c>
@@ -3813,7 +3830,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>41030</v>
       </c>
@@ -3839,7 +3856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>41061</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>41091</v>
       </c>
@@ -3885,7 +3902,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>41122</v>
       </c>
@@ -3911,7 +3928,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>55</v>
@@ -3933,7 +3950,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>41153</v>
       </c>
@@ -3959,7 +3976,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -3981,7 +3998,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>56</v>
@@ -4001,7 +4018,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4017,7 +4034,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -4043,7 +4060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -4065,7 +4082,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -4085,7 +4102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4101,7 +4118,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>41214</v>
       </c>
@@ -4121,7 +4138,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>41244</v>
       </c>
@@ -4147,7 +4164,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>64</v>
@@ -4169,7 +4186,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>45</v>
       </c>
@@ -4187,7 +4204,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>41275</v>
       </c>
@@ -4215,7 +4232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -4237,7 +4254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>41306</v>
       </c>
@@ -4265,7 +4282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>56</v>
@@ -4285,7 +4302,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>41334</v>
       </c>
@@ -4309,7 +4326,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>41365</v>
       </c>
@@ -4333,7 +4350,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>67</v>
@@ -4355,7 +4372,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>41395</v>
       </c>
@@ -4381,7 +4398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4403,7 +4420,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>41426</v>
       </c>
@@ -4429,7 +4446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>41456</v>
       </c>
@@ -4455,7 +4472,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>41487</v>
       </c>
@@ -4481,7 +4498,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>41518</v>
       </c>
@@ -4507,7 +4524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>78</v>
@@ -4527,7 +4544,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>41548</v>
       </c>
@@ -4553,7 +4570,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>56</v>
@@ -4573,7 +4590,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>79</v>
@@ -4593,7 +4610,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>41579</v>
       </c>
@@ -4617,7 +4634,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>41609</v>
       </c>
@@ -4641,7 +4658,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>54</v>
       </c>
@@ -4659,7 +4676,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>41640</v>
       </c>
@@ -4685,7 +4702,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -4707,7 +4724,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -4731,7 +4748,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>82</v>
@@ -4751,7 +4768,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>67</v>
@@ -4773,7 +4790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>41671</v>
       </c>
@@ -4803,7 +4820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>41699</v>
       </c>
@@ -4827,7 +4844,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>41730</v>
       </c>
@@ -4853,7 +4870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>84</v>
@@ -4873,7 +4890,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>67</v>
@@ -4895,7 +4912,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>41760</v>
       </c>
@@ -4919,7 +4936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>65</v>
@@ -4943,7 +4960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>95</v>
@@ -4963,7 +4980,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>41791</v>
       </c>
@@ -4989,7 +5006,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>96</v>
@@ -5006,7 +5023,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>97</v>
@@ -5023,7 +5040,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>41821</v>
       </c>
@@ -5047,7 +5064,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>41852</v>
       </c>
@@ -5071,7 +5088,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>41883</v>
       </c>
@@ -5095,7 +5112,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>101</v>
@@ -5115,7 +5132,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>41913</v>
       </c>
@@ -5139,7 +5156,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>41944</v>
       </c>
@@ -5163,7 +5180,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>104</v>
@@ -5185,7 +5202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>41974</v>
       </c>
@@ -5209,7 +5226,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>107</v>
@@ -5231,7 +5248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>53</v>
       </c>
@@ -5251,7 +5268,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>42005</v>
       </c>
@@ -5275,7 +5292,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>110</v>
@@ -5297,7 +5314,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>112</v>
@@ -5319,7 +5336,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>67</v>
@@ -5341,7 +5358,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
         <v>115</v>
       </c>
@@ -5365,7 +5382,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>116</v>
@@ -5387,7 +5404,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>118</v>
@@ -5407,7 +5424,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>42064</v>
       </c>
@@ -5429,7 +5446,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>107</v>
@@ -5451,7 +5468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>42095</v>
       </c>
@@ -5475,7 +5492,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>123</v>
@@ -5497,7 +5514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>42125</v>
       </c>
@@ -5521,7 +5538,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>125</v>
@@ -5543,7 +5560,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>42156</v>
       </c>
@@ -5567,7 +5584,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>127</v>
@@ -5589,7 +5606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>42186</v>
       </c>
@@ -5613,7 +5630,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>130</v>
@@ -5635,7 +5652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>55</v>
@@ -5657,7 +5674,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>42217</v>
       </c>
@@ -5681,7 +5698,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>116</v>
@@ -5703,7 +5720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>133</v>
@@ -5725,7 +5742,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>42248</v>
       </c>
@@ -5749,7 +5766,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>127</v>
@@ -5771,7 +5788,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>42278</v>
       </c>
@@ -5795,7 +5812,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>116</v>
@@ -5817,7 +5834,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>42309</v>
       </c>
@@ -5841,7 +5858,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>42339</v>
       </c>
@@ -5865,7 +5882,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>107</v>
@@ -5887,7 +5904,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
         <v>52</v>
       </c>
@@ -5907,7 +5924,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>42370</v>
       </c>
@@ -5927,7 +5944,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>42401</v>
       </c>
@@ -5947,7 +5964,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>42430</v>
       </c>
@@ -5967,7 +5984,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>42461</v>
       </c>
@@ -5987,7 +6004,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>42491</v>
       </c>
@@ -6007,7 +6024,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>42522</v>
       </c>
@@ -6027,7 +6044,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>42552</v>
       </c>
@@ -6047,7 +6064,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>42583</v>
       </c>
@@ -6067,7 +6084,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>42614</v>
       </c>
@@ -6087,7 +6104,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>42644</v>
       </c>
@@ -6107,7 +6124,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>42675</v>
       </c>
@@ -6127,7 +6144,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>42705</v>
       </c>
@@ -6151,7 +6168,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>51</v>
       </c>
@@ -6173,7 +6190,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>42736</v>
       </c>
@@ -6199,7 +6216,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>42767</v>
       </c>
@@ -6219,7 +6236,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>42795</v>
       </c>
@@ -6239,7 +6256,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>42826</v>
       </c>
@@ -6259,7 +6276,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>42856</v>
       </c>
@@ -6279,7 +6296,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>42887</v>
       </c>
@@ -6299,7 +6316,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>42917</v>
       </c>
@@ -6319,7 +6336,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>42948</v>
       </c>
@@ -6339,7 +6356,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>42979</v>
       </c>
@@ -6359,7 +6376,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>43009</v>
       </c>
@@ -6379,7 +6396,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>43040</v>
       </c>
@@ -6399,7 +6416,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>43070</v>
       </c>
@@ -6423,7 +6440,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
         <v>50</v>
       </c>
@@ -6445,7 +6462,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>43101</v>
       </c>
@@ -6471,7 +6488,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>43132</v>
       </c>
@@ -6497,7 +6514,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>43160</v>
       </c>
@@ -6523,7 +6540,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>43191</v>
       </c>
@@ -6549,7 +6566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>43221</v>
       </c>
@@ -6575,7 +6592,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>43252</v>
       </c>
@@ -6595,7 +6612,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>43282</v>
       </c>
@@ -6615,7 +6632,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>43313</v>
       </c>
@@ -6641,7 +6658,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>43344</v>
       </c>
@@ -6667,7 +6684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>43374</v>
       </c>
@@ -6693,7 +6710,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>67</v>
@@ -6715,7 +6732,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>43405</v>
       </c>
@@ -6735,7 +6752,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>43435</v>
       </c>
@@ -6759,7 +6776,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>55</v>
@@ -6781,7 +6798,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>49</v>
       </c>
@@ -6803,7 +6820,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>43466</v>
       </c>
@@ -6829,7 +6846,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>55</v>
@@ -6851,7 +6868,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>78</v>
@@ -6873,7 +6890,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>43497</v>
       </c>
@@ -6899,7 +6916,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>43525</v>
       </c>
@@ -6925,7 +6942,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>55</v>
@@ -6947,7 +6964,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>55</v>
@@ -6969,7 +6986,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>43556</v>
       </c>
@@ -6995,7 +7012,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>55</v>
@@ -7017,7 +7034,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>43586</v>
       </c>
@@ -7037,7 +7054,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>43617</v>
       </c>
@@ -7057,7 +7074,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43647</v>
       </c>
@@ -7083,7 +7100,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>43678</v>
       </c>
@@ -7109,7 +7126,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>43709</v>
       </c>
@@ -7135,7 +7152,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>67</v>
@@ -7157,7 +7174,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>59</v>
@@ -7179,7 +7196,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>43739</v>
       </c>
@@ -7199,7 +7216,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>43770</v>
       </c>
@@ -7225,7 +7242,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>56</v>
@@ -7245,7 +7262,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>67</v>
@@ -7267,7 +7284,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>43800</v>
       </c>
@@ -7291,7 +7308,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="47" t="s">
         <v>48</v>
       </c>
@@ -7313,7 +7330,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>43831</v>
       </c>
@@ -7337,7 +7354,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>43862</v>
       </c>
@@ -7357,7 +7374,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>43891</v>
       </c>
@@ -7377,7 +7394,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>43922</v>
       </c>
@@ -7397,7 +7414,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>43952</v>
       </c>
@@ -7417,7 +7434,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>43983</v>
       </c>
@@ -7443,7 +7460,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>55</v>
@@ -7465,7 +7482,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>44013</v>
       </c>
@@ -7491,7 +7508,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>67</v>
@@ -7513,7 +7530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>44044</v>
       </c>
@@ -7539,7 +7556,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>44075</v>
       </c>
@@ -7565,7 +7582,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>44105</v>
       </c>
@@ -7585,7 +7602,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>44136</v>
       </c>
@@ -7605,7 +7622,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>44166</v>
       </c>
@@ -7629,7 +7646,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>47</v>
       </c>
@@ -7651,7 +7668,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>44197</v>
       </c>
@@ -7671,7 +7688,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>44228</v>
       </c>
@@ -7691,7 +7708,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>44256</v>
       </c>
@@ -7711,7 +7728,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>44287</v>
       </c>
@@ -7731,7 +7748,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>44317</v>
       </c>
@@ -7751,7 +7768,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>44348</v>
       </c>
@@ -7771,7 +7788,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>44378</v>
       </c>
@@ -7791,7 +7808,7 @@
       <c r="J197" s="12"/>
       <c r="K197" s="15"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>44409</v>
       </c>
@@ -7811,7 +7828,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>44440</v>
       </c>
@@ -7831,7 +7848,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>44470</v>
       </c>
@@ -7851,7 +7868,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>44501</v>
       </c>
@@ -7871,7 +7888,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>44531</v>
       </c>
@@ -7895,7 +7912,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>142</v>
@@ -7915,7 +7932,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="47" t="s">
         <v>46</v>
       </c>
@@ -7937,7 +7954,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>44562</v>
       </c>
@@ -7957,7 +7974,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>44593</v>
       </c>
@@ -7977,7 +7994,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>44621</v>
       </c>
@@ -7997,7 +8014,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44652</v>
       </c>
@@ -8023,7 +8040,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>67</v>
@@ -8045,7 +8062,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>56</v>
@@ -8065,7 +8082,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>67</v>
@@ -8087,7 +8104,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>44682</v>
       </c>
@@ -8107,7 +8124,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>44713</v>
       </c>
@@ -8127,7 +8144,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>44743</v>
       </c>
@@ -8153,7 +8170,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>44774</v>
       </c>
@@ -8179,7 +8196,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44805</v>
       </c>
@@ -8205,7 +8222,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44835</v>
       </c>
@@ -8231,7 +8248,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>44866</v>
       </c>
@@ -8257,7 +8274,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>44896</v>
       </c>
@@ -8281,7 +8298,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>191</v>
@@ -8301,7 +8318,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="47" t="s">
         <v>175</v>
       </c>
@@ -8319,7 +8336,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44927</v>
       </c>
@@ -8345,7 +8362,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>67</v>
@@ -8367,7 +8384,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>59</v>
@@ -8389,7 +8406,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>44958</v>
       </c>
@@ -8415,7 +8432,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>55</v>
@@ -8437,7 +8454,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>55</v>
@@ -8459,7 +8476,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44986</v>
       </c>
@@ -8485,7 +8502,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>45017</v>
       </c>
@@ -8511,7 +8528,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>45047</v>
       </c>
@@ -8537,7 +8554,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>55</v>
@@ -8559,7 +8576,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>67</v>
@@ -8581,7 +8598,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>45078</v>
       </c>
@@ -8607,7 +8624,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>55</v>
@@ -8629,7 +8646,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>67</v>
@@ -8651,7 +8668,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>45108</v>
       </c>
@@ -8677,7 +8694,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>45139</v>
       </c>
@@ -8703,7 +8720,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>67</v>
@@ -8725,7 +8742,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>55</v>
@@ -8747,20 +8764,22 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>45170</v>
       </c>
       <c r="B240" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C240" s="13"/>
+      <c r="C240" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G240" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H240" s="39">
         <v>1</v>
@@ -8771,7 +8790,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>189</v>
@@ -8793,11 +8812,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B242" s="20"/>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="40"/>
+      <c r="B242" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39"/>
       <c r="E242" s="9"/>
@@ -8806,34 +8825,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H242" s="39"/>
+      <c r="H242" s="39">
+        <v>2</v>
+      </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K242" s="48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B243" s="20"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C243" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D243" s="39">
+        <v>3</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G243" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A244" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B244" s="20"/>
+      <c r="K243" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="40"/>
+      <c r="B244" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
@@ -8842,18 +8873,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H244" s="39"/>
+      <c r="H244" s="39">
+        <v>3</v>
+      </c>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="20"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B245" s="20"/>
+      <c r="K244" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="40"/>
+      <c r="B245" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="C245" s="13"/>
-      <c r="D245" s="39"/>
+      <c r="D245" s="39">
+        <v>5</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
       <c r="G245" s="13" t="str">
@@ -8863,31 +8900,41 @@
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K245" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B246" s="20"/>
-      <c r="C246" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H246" s="39"/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H246" s="39">
+        <v>1</v>
+      </c>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="20"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B247" s="20"/>
+      <c r="K246" s="48">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="40"/>
+      <c r="B247" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
@@ -8896,26 +8943,130 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H247" s="39"/>
+      <c r="H247" s="39">
+        <v>1</v>
+      </c>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
-      <c r="K247" s="20"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248" s="49"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="41"/>
-      <c r="D248" s="42"/>
+      <c r="K247" s="48">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="40"/>
+      <c r="B248" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39"/>
       <c r="E248" s="9"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="41" t="str">
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H248" s="42"/>
+      <c r="H248" s="39">
+        <v>1</v>
+      </c>
       <c r="I248" s="9"/>
-      <c r="J248" s="12"/>
-      <c r="K248" s="15"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="48">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C249" s="13"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H249" s="39">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="48">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" s="20"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H250" s="39"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="20"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="39"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="49"/>
+      <c r="B253" s="15"/>
+      <c r="C253" s="41"/>
+      <c r="D253" s="42"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H253" s="42"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="12"/>
+      <c r="K253" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8932,10 +9083,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8958,7 +9109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8966,21 +9117,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8993,7 +9144,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9022,7 +9173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9048,17 +9199,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9079,7 +9230,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9106,7 +9257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9132,7 +9283,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9158,7 +9309,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9184,7 +9335,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9210,7 +9361,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9236,7 +9387,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9262,7 +9413,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9288,7 +9439,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9308,7 +9459,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9328,7 +9479,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9348,7 +9499,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9369,7 +9520,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9390,7 +9541,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9411,7 +9562,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9432,7 +9583,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9453,7 +9604,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9474,7 +9625,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9495,7 +9646,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9516,7 +9667,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9537,7 +9688,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9558,7 +9709,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9579,7 +9730,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9600,7 +9751,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9621,7 +9772,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9642,7 +9793,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9663,7 +9814,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9684,7 +9835,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9705,7 +9856,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9726,7 +9877,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9747,7 +9898,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9768,7 +9919,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9777,7 +9928,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9786,7 +9937,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9795,7 +9946,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9804,7 +9955,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9813,7 +9964,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9822,7 +9973,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9831,7 +9982,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9840,7 +9991,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9849,7 +10000,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9858,7 +10009,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9867,7 +10018,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9876,7 +10027,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9885,7 +10036,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9894,7 +10045,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9903,7 +10054,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9912,7 +10063,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9921,7 +10072,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9930,7 +10081,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9939,7 +10090,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9948,7 +10099,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9957,7 +10108,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9966,7 +10117,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9975,7 +10126,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9984,7 +10135,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9993,7 +10144,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10002,7 +10153,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10011,7 +10162,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10020,7 +10171,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10029,7 +10180,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
   <si>
     <t>PERIOD</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>10/25-27,31 - 11/3/2023</t>
+  </si>
+  <si>
+    <t>12/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1496,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1539,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1603,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1663,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1729,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1792,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1890,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1949,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2014,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2057,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2132,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2318,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2384,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2442,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2508,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2564,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2639,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2682,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2748,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2804,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2902,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2965,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,8 +3031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K253" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K253"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K254" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K254"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3407,12 +3410,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K253"/>
+  <dimension ref="A2:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3675" topLeftCell="A242" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K249" sqref="K249"/>
+      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +3580,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.910000000000025</v>
+        <v>29.160000000000025</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3587,7 +3590,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>32.5</v>
+        <v>33.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8981,13 +8984,15 @@
       <c r="B249" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C249" s="13"/>
+      <c r="C249" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D249" s="39"/>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G249" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H249" s="39">
         <v>1</v>
@@ -8999,10 +9004,10 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B250" s="20"/>
+      <c r="A250" s="40"/>
+      <c r="B250" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39"/>
       <c r="E250" s="9"/>
@@ -9014,11 +9019,13 @@
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="20"/>
+      <c r="K250" s="48" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="40">
-        <v>45292</v>
+      <c r="A251" s="47" t="s">
+        <v>188</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -9036,7 +9043,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -9053,20 +9060,38 @@
       <c r="K252" s="20"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="49"/>
-      <c r="B253" s="15"/>
-      <c r="C253" s="41"/>
-      <c r="D253" s="42"/>
+      <c r="A253" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B253" s="20"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="39"/>
       <c r="E253" s="9"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="41" t="str">
+      <c r="F253" s="20"/>
+      <c r="G253" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H253" s="42"/>
+      <c r="H253" s="39"/>
       <c r="I253" s="9"/>
-      <c r="J253" s="12"/>
-      <c r="K253" s="15"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="20"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="49"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="41"/>
+      <c r="D254" s="42"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="42"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="12"/>
+      <c r="K254" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DA815-C02B-4A90-82F1-7F4FFF974E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="200">
   <si>
     <t>PERIOD</t>
   </si>
@@ -631,12 +632,15 @@
   </si>
   <si>
     <t>12/27,28/2023</t>
+  </si>
+  <si>
+    <t>1/2,3/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1496,7 +1500,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1543,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1607,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1667,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1733,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1796,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1894,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1953,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2018,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2061,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2136,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2322,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2388,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2446,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2512,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2568,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2643,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2686,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2752,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2808,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2906,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2969,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3018,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3031,26 +3035,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K254" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K254"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K255" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K255" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3062,13 +3066,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3077,14 +3081,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3388,7 +3392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3398,7 +3402,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3406,34 +3410,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K254"/>
+  <dimension ref="A2:K255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A242" activePane="bottomLeft"/>
+      <pane ySplit="3672" topLeftCell="A242" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
+      <selection pane="bottomLeft" activeCell="K254" sqref="K254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3456,7 +3460,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3476,7 +3480,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3502,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3506,7 +3510,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3519,7 +3523,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3536,7 +3540,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3580,7 +3584,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.160000000000025</v>
+        <v>28.160000000000025</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3590,12 +3594,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33.75</v>
+        <v>31.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3617,7 +3621,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3637,7 +3641,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3657,7 +3661,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3677,7 +3681,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40878</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>44</v>
       </c>
@@ -3747,7 +3751,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40909</v>
       </c>
@@ -3767,7 +3771,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>40940</v>
       </c>
@@ -3789,7 +3793,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40969</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>41000</v>
       </c>
@@ -3833,7 +3837,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>41030</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>41061</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>41091</v>
       </c>
@@ -3905,7 +3909,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>41122</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>55</v>
@@ -3953,7 +3957,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41153</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -4001,7 +4005,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>56</v>
@@ -4021,7 +4025,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4037,7 +4041,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -4085,7 +4089,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -4105,7 +4109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4121,7 +4125,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>41214</v>
       </c>
@@ -4141,7 +4145,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>41244</v>
       </c>
@@ -4167,7 +4171,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>64</v>
@@ -4189,7 +4193,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>45</v>
       </c>
@@ -4207,7 +4211,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>41275</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -4257,7 +4261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>41306</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>56</v>
@@ -4305,7 +4309,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>41334</v>
       </c>
@@ -4329,7 +4333,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>41365</v>
       </c>
@@ -4353,7 +4357,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>67</v>
@@ -4375,7 +4379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>41395</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4423,7 +4427,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>41426</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>41456</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>41487</v>
       </c>
@@ -4501,7 +4505,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>41518</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>78</v>
@@ -4547,7 +4551,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>41548</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>56</v>
@@ -4593,7 +4597,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>79</v>
@@ -4613,7 +4617,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>41579</v>
       </c>
@@ -4637,7 +4641,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>41609</v>
       </c>
@@ -4661,7 +4665,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>54</v>
       </c>
@@ -4679,7 +4683,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>41640</v>
       </c>
@@ -4705,7 +4709,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -4727,7 +4731,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -4751,7 +4755,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>82</v>
@@ -4771,7 +4775,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>67</v>
@@ -4793,7 +4797,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>41671</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>41699</v>
       </c>
@@ -4847,7 +4851,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>41730</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>84</v>
@@ -4893,7 +4897,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>67</v>
@@ -4915,7 +4919,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>41760</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>65</v>
@@ -4963,7 +4967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>95</v>
@@ -4983,7 +4987,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>41791</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>96</v>
@@ -5026,7 +5030,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>97</v>
@@ -5043,7 +5047,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41821</v>
       </c>
@@ -5067,7 +5071,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>41852</v>
       </c>
@@ -5091,7 +5095,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>41883</v>
       </c>
@@ -5115,7 +5119,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>101</v>
@@ -5135,7 +5139,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>41913</v>
       </c>
@@ -5159,7 +5163,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41944</v>
       </c>
@@ -5183,7 +5187,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>104</v>
@@ -5205,7 +5209,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>41974</v>
       </c>
@@ -5229,7 +5233,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>107</v>
@@ -5251,7 +5255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>53</v>
       </c>
@@ -5271,7 +5275,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>42005</v>
       </c>
@@ -5295,7 +5299,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>110</v>
@@ -5317,7 +5321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>112</v>
@@ -5339,7 +5343,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>67</v>
@@ -5361,7 +5365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40" t="s">
         <v>115</v>
       </c>
@@ -5385,7 +5389,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>116</v>
@@ -5407,7 +5411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>118</v>
@@ -5427,7 +5431,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>42064</v>
       </c>
@@ -5449,7 +5453,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>107</v>
@@ -5471,7 +5475,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>42095</v>
       </c>
@@ -5495,7 +5499,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>123</v>
@@ -5517,7 +5521,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>42125</v>
       </c>
@@ -5541,7 +5545,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>125</v>
@@ -5563,7 +5567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>42156</v>
       </c>
@@ -5587,7 +5591,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>127</v>
@@ -5609,7 +5613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>42186</v>
       </c>
@@ -5633,7 +5637,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>130</v>
@@ -5655,7 +5659,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>55</v>
@@ -5677,7 +5681,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>42217</v>
       </c>
@@ -5701,7 +5705,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>116</v>
@@ -5723,7 +5727,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>133</v>
@@ -5745,7 +5749,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>42248</v>
       </c>
@@ -5769,7 +5773,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>127</v>
@@ -5791,7 +5795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>42278</v>
       </c>
@@ -5815,7 +5819,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>116</v>
@@ -5837,7 +5841,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>42309</v>
       </c>
@@ -5861,7 +5865,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>42339</v>
       </c>
@@ -5885,7 +5889,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>107</v>
@@ -5907,7 +5911,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="47" t="s">
         <v>52</v>
       </c>
@@ -5927,7 +5931,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>42370</v>
       </c>
@@ -5947,7 +5951,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>42401</v>
       </c>
@@ -5967,7 +5971,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>42430</v>
       </c>
@@ -5987,7 +5991,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>42461</v>
       </c>
@@ -6007,7 +6011,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42491</v>
       </c>
@@ -6027,7 +6031,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>42522</v>
       </c>
@@ -6047,7 +6051,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>42552</v>
       </c>
@@ -6067,7 +6071,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>42583</v>
       </c>
@@ -6087,7 +6091,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>42614</v>
       </c>
@@ -6107,7 +6111,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>42644</v>
       </c>
@@ -6127,7 +6131,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>42675</v>
       </c>
@@ -6147,7 +6151,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>42705</v>
       </c>
@@ -6171,7 +6175,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="47" t="s">
         <v>51</v>
       </c>
@@ -6193,7 +6197,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>42736</v>
       </c>
@@ -6219,7 +6223,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>42767</v>
       </c>
@@ -6239,7 +6243,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>42795</v>
       </c>
@@ -6259,7 +6263,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>42826</v>
       </c>
@@ -6279,7 +6283,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>42856</v>
       </c>
@@ -6299,7 +6303,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42887</v>
       </c>
@@ -6319,7 +6323,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>42917</v>
       </c>
@@ -6339,7 +6343,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42948</v>
       </c>
@@ -6359,7 +6363,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42979</v>
       </c>
@@ -6379,7 +6383,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>43009</v>
       </c>
@@ -6399,7 +6403,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>43040</v>
       </c>
@@ -6419,7 +6423,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>43070</v>
       </c>
@@ -6443,7 +6447,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
         <v>50</v>
       </c>
@@ -6465,7 +6469,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>43101</v>
       </c>
@@ -6491,7 +6495,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>43132</v>
       </c>
@@ -6517,7 +6521,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>43160</v>
       </c>
@@ -6543,7 +6547,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>43191</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>43221</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>43252</v>
       </c>
@@ -6615,7 +6619,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>43282</v>
       </c>
@@ -6635,7 +6639,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>43313</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>43344</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>43374</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>67</v>
@@ -6735,7 +6739,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>43405</v>
       </c>
@@ -6755,7 +6759,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>43435</v>
       </c>
@@ -6779,7 +6783,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>55</v>
@@ -6801,7 +6805,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>49</v>
       </c>
@@ -6823,7 +6827,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>43466</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>55</v>
@@ -6871,7 +6875,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>78</v>
@@ -6893,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>43497</v>
       </c>
@@ -6919,7 +6923,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>43525</v>
       </c>
@@ -6945,7 +6949,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>55</v>
@@ -6967,7 +6971,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>55</v>
@@ -6989,7 +6993,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>43556</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>55</v>
@@ -7037,7 +7041,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>43586</v>
       </c>
@@ -7057,7 +7061,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>43617</v>
       </c>
@@ -7077,7 +7081,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>43647</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>43678</v>
       </c>
@@ -7129,7 +7133,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>43709</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>67</v>
@@ -7177,7 +7181,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>59</v>
@@ -7199,7 +7203,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>43739</v>
       </c>
@@ -7219,7 +7223,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>43770</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>56</v>
@@ -7265,7 +7269,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>67</v>
@@ -7287,7 +7291,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>43800</v>
       </c>
@@ -7311,7 +7315,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="47" t="s">
         <v>48</v>
       </c>
@@ -7333,7 +7337,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>43831</v>
       </c>
@@ -7357,7 +7361,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>43862</v>
       </c>
@@ -7377,7 +7381,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>43891</v>
       </c>
@@ -7397,7 +7401,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>43922</v>
       </c>
@@ -7417,7 +7421,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>43952</v>
       </c>
@@ -7437,7 +7441,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>43983</v>
       </c>
@@ -7463,7 +7467,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>55</v>
@@ -7485,7 +7489,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>44013</v>
       </c>
@@ -7511,7 +7515,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>67</v>
@@ -7533,7 +7537,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>44044</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>44075</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>44105</v>
       </c>
@@ -7605,7 +7609,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>44136</v>
       </c>
@@ -7625,7 +7629,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>44166</v>
       </c>
@@ -7649,7 +7653,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>47</v>
       </c>
@@ -7671,7 +7675,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>44197</v>
       </c>
@@ -7691,7 +7695,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>44228</v>
       </c>
@@ -7711,7 +7715,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>44256</v>
       </c>
@@ -7731,7 +7735,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>44287</v>
       </c>
@@ -7751,7 +7755,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>44317</v>
       </c>
@@ -7771,7 +7775,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>44348</v>
       </c>
@@ -7791,7 +7795,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>44378</v>
       </c>
@@ -7811,7 +7815,7 @@
       <c r="J197" s="12"/>
       <c r="K197" s="15"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>44409</v>
       </c>
@@ -7831,7 +7835,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>44440</v>
       </c>
@@ -7851,7 +7855,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>44470</v>
       </c>
@@ -7871,7 +7875,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>44501</v>
       </c>
@@ -7891,7 +7895,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>44531</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>142</v>
@@ -7935,7 +7939,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="47" t="s">
         <v>46</v>
       </c>
@@ -7957,7 +7961,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>44562</v>
       </c>
@@ -7977,7 +7981,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>44593</v>
       </c>
@@ -7997,7 +8001,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>44621</v>
       </c>
@@ -8017,7 +8021,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>44652</v>
       </c>
@@ -8043,7 +8047,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>67</v>
@@ -8065,7 +8069,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>56</v>
@@ -8085,7 +8089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>67</v>
@@ -8107,7 +8111,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>44682</v>
       </c>
@@ -8127,7 +8131,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>44713</v>
       </c>
@@ -8147,7 +8151,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>44743</v>
       </c>
@@ -8173,7 +8177,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>44774</v>
       </c>
@@ -8199,7 +8203,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>44805</v>
       </c>
@@ -8225,7 +8229,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>44835</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>44866</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>44896</v>
       </c>
@@ -8301,7 +8305,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>191</v>
@@ -8321,7 +8325,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="47" t="s">
         <v>175</v>
       </c>
@@ -8339,7 +8343,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>44927</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>67</v>
@@ -8387,7 +8391,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>59</v>
@@ -8409,7 +8413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>44958</v>
       </c>
@@ -8435,7 +8439,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>55</v>
@@ -8457,7 +8461,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>55</v>
@@ -8479,7 +8483,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>44986</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>45017</v>
       </c>
@@ -8531,7 +8535,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>45047</v>
       </c>
@@ -8557,7 +8561,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>55</v>
@@ -8579,7 +8583,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>67</v>
@@ -8601,7 +8605,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>45078</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>55</v>
@@ -8649,7 +8653,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>67</v>
@@ -8671,7 +8675,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>45108</v>
       </c>
@@ -8697,7 +8701,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>45139</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>67</v>
@@ -8745,7 +8749,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>55</v>
@@ -8767,7 +8771,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>45170</v>
       </c>
@@ -8793,7 +8797,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>189</v>
@@ -8815,7 +8819,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>67</v>
@@ -8837,7 +8841,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>45200</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>59</v>
@@ -8885,7 +8889,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>196</v>
@@ -8907,7 +8911,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>45231</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>55</v>
@@ -8955,7 +8959,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>55</v>
@@ -8977,7 +8981,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>45261</v>
       </c>
@@ -9003,7 +9007,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>61</v>
@@ -9023,7 +9027,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="47" t="s">
         <v>188</v>
       </c>
@@ -9041,13 +9045,17 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>45292</v>
       </c>
-      <c r="B252" s="20"/>
+      <c r="B252" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C252" s="13"/>
-      <c r="D252" s="39"/>
+      <c r="D252" s="39">
+        <v>1</v>
+      </c>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
       <c r="G252" s="13" t="str">
@@ -9057,13 +9065,15 @@
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="20"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B253" s="20"/>
+      <c r="K252" s="48">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="40"/>
+      <c r="B253" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
@@ -9072,26 +9082,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H253" s="39"/>
+      <c r="H253" s="39">
+        <v>2</v>
+      </c>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="49"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="41"/>
-      <c r="D254" s="42"/>
+      <c r="K253" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B254" s="20"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="39"/>
       <c r="E254" s="9"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="41" t="str">
+      <c r="F254" s="20"/>
+      <c r="G254" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H254" s="42"/>
+      <c r="H254" s="39"/>
       <c r="I254" s="9"/>
-      <c r="J254" s="12"/>
-      <c r="K254" s="15"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="20"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="49"/>
+      <c r="B255" s="15"/>
+      <c r="C255" s="41"/>
+      <c r="D255" s="42"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H255" s="42"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="12"/>
+      <c r="K255" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9108,10 +9140,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9134,7 +9166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9142,21 +9174,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9169,7 +9201,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9198,7 +9230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9224,17 +9256,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9255,7 +9287,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9282,7 +9314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9308,7 +9340,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9334,7 +9366,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9360,7 +9392,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9386,7 +9418,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9412,7 +9444,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9438,7 +9470,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9464,7 +9496,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9484,7 +9516,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9504,7 +9536,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9524,7 +9556,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9545,7 +9577,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9566,7 +9598,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9587,7 +9619,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9608,7 +9640,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9629,7 +9661,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9650,7 +9682,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9671,7 +9703,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9692,7 +9724,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9713,7 +9745,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9734,7 +9766,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9755,7 +9787,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9776,7 +9808,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9797,7 +9829,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9818,7 +9850,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9839,7 +9871,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9860,7 +9892,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9881,7 +9913,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9902,7 +9934,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9923,7 +9955,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9944,7 +9976,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9953,7 +9985,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9962,7 +9994,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9971,7 +10003,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9980,7 +10012,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9989,7 +10021,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9998,7 +10030,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10007,7 +10039,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10016,7 +10048,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10025,7 +10057,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10034,7 +10066,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10043,7 +10075,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10052,7 +10084,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10061,7 +10093,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10070,7 +10102,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10079,7 +10111,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10088,7 +10120,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10097,7 +10129,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10106,7 +10138,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10115,7 +10147,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10124,7 +10156,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10133,7 +10165,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10142,7 +10174,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10151,7 +10183,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10160,7 +10192,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10169,7 +10201,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10178,7 +10210,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10187,7 +10219,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10196,7 +10228,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10205,7 +10237,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DA815-C02B-4A90-82F1-7F4FFF974E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="178">
   <si>
     <t>PERIOD</t>
   </si>
@@ -328,9 +327,6 @@
     <t>UT(1-1-42)</t>
   </si>
   <si>
-    <t>A(3-5-0)</t>
-  </si>
-  <si>
     <t>UT(0-3-42)</t>
   </si>
   <si>
@@ -340,9 +336,6 @@
     <t>UT(0-5-22)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(1-2-40)</t>
   </si>
   <si>
@@ -358,24 +351,9 @@
     <t>UT(0-5-38)</t>
   </si>
   <si>
-    <t>A(5-0-0)</t>
-  </si>
-  <si>
-    <t>05/05,09,10,19,29/2014</t>
-  </si>
-  <si>
     <t>UT(0-4-41)</t>
   </si>
   <si>
-    <t>A(7-0-0)</t>
-  </si>
-  <si>
-    <t>01/09,15,16,21-23,26/2015</t>
-  </si>
-  <si>
-    <t>HD(1-0-0)</t>
-  </si>
-  <si>
     <t>01/21,22/2015</t>
   </si>
   <si>
@@ -385,84 +363,36 @@
     <t>2/1-28/2015</t>
   </si>
   <si>
-    <t>A(6-0-0)</t>
-  </si>
-  <si>
-    <t>02/03,04,11,13,24,25/2015</t>
-  </si>
-  <si>
-    <t>HD(1-5-0)</t>
-  </si>
-  <si>
     <t>UT(0-7-32)</t>
   </si>
   <si>
-    <t>03/11,17,25,26,31/2015</t>
-  </si>
-  <si>
     <t>UT(1-4-32)</t>
   </si>
   <si>
     <t>UT(1-3-22)</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>04/23,27/2015</t>
-  </si>
-  <si>
-    <t>A(7-5-0)</t>
-  </si>
-  <si>
-    <t>05/04,07,08,11,20,26,28/2015</t>
-  </si>
-  <si>
-    <t>A(4-5-0)</t>
-  </si>
-  <si>
-    <t>06/01,04,15,29/2015</t>
-  </si>
-  <si>
     <t>UT(1-1-24)</t>
   </si>
   <si>
-    <t>A(6-5-0)</t>
-  </si>
-  <si>
     <t>UT(0-6-26)</t>
   </si>
   <si>
-    <t>07/02,13,14,16,22,28,30/2015</t>
-  </si>
-  <si>
     <t>HD(0-5-0)</t>
   </si>
   <si>
-    <t>08/03,04,07,13,18,19/2015</t>
-  </si>
-  <si>
     <t>UT(0-5-52)</t>
   </si>
   <si>
-    <t>09/09,15,21,23,28/2015</t>
-  </si>
-  <si>
     <t>UT(0-5-54)</t>
   </si>
   <si>
-    <t>10/14-17,18,19/2015</t>
-  </si>
-  <si>
     <t>UT(1-3-20)</t>
   </si>
   <si>
     <t>UT(1-7-7)</t>
   </si>
   <si>
-    <t>12/07,11,15,22,29/2015</t>
-  </si>
-  <si>
     <t>FL(5-0-0)</t>
   </si>
   <si>
@@ -574,9 +504,6 @@
     <t>ADMIN AIDE III</t>
   </si>
   <si>
-    <t>1 - Married (and not separated)</t>
-  </si>
-  <si>
     <t>10/21,24,25/2022</t>
   </si>
   <si>
@@ -635,12 +562,18 @@
   </si>
   <si>
     <t>1/2,3/2024</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>5 - Single (including living common law)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1500,7 +1433,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1476,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1540,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1600,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1666,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1729,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1827,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1886,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +1951,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +1994,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2069,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2255,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2321,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2379,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2445,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2501,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2576,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2619,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2685,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2741,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2839,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2969,7 +2902,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +2951,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3035,26 +2968,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K255" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K255" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K239" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K239"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3066,13 +2999,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3081,14 +3014,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3392,7 +3325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3402,7 +3335,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3410,34 +3343,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K255"/>
+  <dimension ref="A2:K239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A242" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K254" sqref="K254"/>
+      <pane ySplit="3675"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3450,7 +3383,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
@@ -3460,12 +3393,12 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -3480,19 +3413,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
@@ -3502,7 +3435,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3510,7 +3443,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3523,7 +3456,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3540,7 +3473,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3584,7 +3517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.160000000000025</v>
+        <v>84.659999999999982</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3599,7 +3532,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3621,7 +3554,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3641,7 +3574,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3661,7 +3594,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3681,7 +3614,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3707,7 +3640,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>40878</v>
       </c>
@@ -3729,7 +3662,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>44</v>
       </c>
@@ -3751,7 +3684,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>40909</v>
       </c>
@@ -3771,7 +3704,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>40940</v>
       </c>
@@ -3793,7 +3726,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40969</v>
       </c>
@@ -3817,7 +3750,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>41000</v>
       </c>
@@ -3837,7 +3770,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>41030</v>
       </c>
@@ -3863,7 +3796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>41061</v>
       </c>
@@ -3889,7 +3822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>41091</v>
       </c>
@@ -3909,7 +3842,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>41122</v>
       </c>
@@ -3935,7 +3868,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>55</v>
@@ -3957,7 +3890,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>41153</v>
       </c>
@@ -3983,7 +3916,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -4005,7 +3938,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>56</v>
@@ -4025,7 +3958,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4041,7 +3974,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -4067,7 +4000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -4089,7 +4022,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -4109,7 +4042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4125,7 +4058,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>41214</v>
       </c>
@@ -4145,7 +4078,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>41244</v>
       </c>
@@ -4171,7 +4104,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>64</v>
@@ -4193,7 +4126,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>45</v>
       </c>
@@ -4211,7 +4144,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>41275</v>
       </c>
@@ -4239,7 +4172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -4261,7 +4194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>41306</v>
       </c>
@@ -4289,7 +4222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>56</v>
@@ -4309,7 +4242,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>41334</v>
       </c>
@@ -4333,7 +4266,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>41365</v>
       </c>
@@ -4357,7 +4290,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>67</v>
@@ -4379,7 +4312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>41395</v>
       </c>
@@ -4405,7 +4338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4427,7 +4360,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>41426</v>
       </c>
@@ -4453,7 +4386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>41456</v>
       </c>
@@ -4479,7 +4412,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>41487</v>
       </c>
@@ -4505,7 +4438,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>41518</v>
       </c>
@@ -4531,7 +4464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>78</v>
@@ -4551,7 +4484,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>41548</v>
       </c>
@@ -4577,7 +4510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>56</v>
@@ -4597,7 +4530,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>79</v>
@@ -4617,7 +4550,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>41579</v>
       </c>
@@ -4641,7 +4574,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>41609</v>
       </c>
@@ -4665,7 +4598,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>54</v>
       </c>
@@ -4683,7 +4616,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>41640</v>
       </c>
@@ -4709,7 +4642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -4731,7 +4664,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -4755,7 +4688,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>82</v>
@@ -4775,7 +4708,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>67</v>
@@ -4797,7 +4730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>41671</v>
       </c>
@@ -4827,7 +4760,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>41699</v>
       </c>
@@ -4851,7 +4784,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>41730</v>
       </c>
@@ -4877,7 +4810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>84</v>
@@ -4897,7 +4830,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>67</v>
@@ -4919,7 +4852,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>41760</v>
       </c>
@@ -4943,7 +4876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>65</v>
@@ -4967,7 +4900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>95</v>
@@ -4987,7 +4920,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>41791</v>
       </c>
@@ -5013,7 +4946,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>96</v>
@@ -5030,26 +4963,33 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="40">
+        <v>41821</v>
+      </c>
       <c r="B73" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="39"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="39">
+        <v>0.46200000000000002</v>
+      </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="39">
-        <v>3.5</v>
-      </c>
-      <c r="G73" s="13"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="48"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="20"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>98</v>
@@ -5058,7 +4998,7 @@
         <v>1.25</v>
       </c>
       <c r="D74" s="39">
-        <v>0.46200000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
@@ -5071,9 +5011,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>99</v>
@@ -5082,7 +5022,7 @@
         <v>1.25</v>
       </c>
       <c r="D75" s="39">
-        <v>0.65400000000000003</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
@@ -5095,9 +5035,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>100</v>
@@ -5106,7 +5046,7 @@
         <v>1.25</v>
       </c>
       <c r="D76" s="39">
-        <v>0.67100000000000004</v>
+        <v>1.333</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
@@ -5119,62 +5059,64 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>41944</v>
+      </c>
       <c r="B77" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39">
-        <v>1</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>41913</v>
-      </c>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
       <c r="D79" s="39">
-        <v>0.61699999999999999</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -5187,40 +5129,38 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20" t="s">
-        <v>104</v>
-      </c>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="20"/>
       <c r="C80" s="13"/>
-      <c r="D80" s="39">
-        <v>3</v>
-      </c>
-      <c r="E80" s="9"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H80" s="39"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="34"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
+      <c r="K80" s="20"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>42005</v>
+      </c>
+      <c r="B81" s="20" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40">
-        <v>41974</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
       <c r="D81" s="39">
-        <v>0.70399999999999996</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
@@ -5233,150 +5173,158 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="39">
-        <v>5</v>
-      </c>
+      <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="B83" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
-      <c r="I83" s="34"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C84" s="13"/>
       <c r="D84" s="39">
-        <v>0.58499999999999996</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>42095</v>
+      </c>
       <c r="B85" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>1.5669999999999999</v>
+      </c>
       <c r="E85" s="9"/>
-      <c r="F85" s="39">
-        <v>7</v>
-      </c>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
+      <c r="K85" s="20"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>42125</v>
+      </c>
+      <c r="B86" s="20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39">
-        <v>1</v>
+        <v>1.421</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="48">
-        <v>42032</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>42156</v>
+      </c>
       <c r="B87" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39">
+        <v>0.746</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39">
-        <v>2</v>
-      </c>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40" t="s">
-        <v>115</v>
+      <c r="K87" s="20"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>42186</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
       <c r="D88" s="39">
-        <v>0.59799999999999998</v>
+        <v>1.175</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
@@ -5389,58 +5337,60 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="39">
-        <v>6</v>
-      </c>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="K89" s="48">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="40">
+        <v>42217</v>
+      </c>
       <c r="B90" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39">
-        <v>1.5</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40">
-        <v>42064</v>
-      </c>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
-        <v>0.94199999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -5451,42 +5401,46 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="K91" s="48">
+        <v>42240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="40">
+        <v>42248</v>
+      </c>
       <c r="B92" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39">
-        <v>5</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="20"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>42095</v>
+        <v>42278</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
       <c r="D93" s="39">
-        <v>1.5669999999999999</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
@@ -5499,40 +5453,42 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="40">
+        <v>42309</v>
+      </c>
       <c r="B94" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39">
-        <v>2</v>
+        <v>1.417</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="20"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>42125</v>
+        <v>42339</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
       <c r="D95" s="39">
-        <v>1.421</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
@@ -5545,41 +5501,35 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20" t="s">
-        <v>125</v>
-      </c>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="20"/>
       <c r="C96" s="13"/>
-      <c r="D96" s="39">
-        <v>7.5</v>
-      </c>
-      <c r="E96" s="9"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H96" s="39"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="34"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>42156</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>42370</v>
+      </c>
+      <c r="B97" s="20"/>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
-      <c r="D97" s="39">
-        <v>0.746</v>
-      </c>
+      <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13">
@@ -5591,41 +5541,35 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39">
-        <v>4.5</v>
-      </c>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
+        <v>42401</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>42186</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>129</v>
-      </c>
+        <v>42430</v>
+      </c>
+      <c r="B99" s="20"/>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
-      <c r="D99" s="39">
-        <v>1.175</v>
-      </c>
+      <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13">
@@ -5637,63 +5581,55 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39">
-        <v>6.5</v>
-      </c>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <v>42461</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="13"/>
+      <c r="K100" s="20"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <v>42491</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="39">
-        <v>1</v>
-      </c>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="48">
-        <v>42199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>42217</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>131</v>
-      </c>
+        <v>42522</v>
+      </c>
+      <c r="B102" s="20"/>
       <c r="C102" s="13">
         <v>1.25</v>
       </c>
-      <c r="D102" s="39">
-        <v>0.80400000000000005</v>
-      </c>
+      <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
@@ -5705,63 +5641,55 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39">
-        <v>6</v>
-      </c>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
+        <v>42552</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="40">
+        <v>42583</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="48">
-        <v>42240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>42248</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>135</v>
-      </c>
+        <v>42614</v>
+      </c>
+      <c r="B105" s="20"/>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
-      <c r="D105" s="39">
-        <v>0.73299999999999998</v>
-      </c>
+      <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13">
@@ -5773,41 +5701,35 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39">
-        <v>4.5</v>
-      </c>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
+        <v>42644</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>42278</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>137</v>
-      </c>
+        <v>42675</v>
+      </c>
+      <c r="B107" s="20"/>
       <c r="C107" s="13">
         <v>1.25</v>
       </c>
-      <c r="D107" s="39">
-        <v>0.73699999999999999</v>
-      </c>
+      <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13">
@@ -5819,121 +5741,121 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
+        <v>42705</v>
+      </c>
       <c r="B108" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40">
-        <v>42309</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D109" s="39">
-        <v>1.417</v>
-      </c>
-      <c r="E109" s="9"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H109" s="39"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>42339</v>
+        <v>42736</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
       </c>
-      <c r="D110" s="39">
-        <v>1.8900000000000001</v>
-      </c>
+      <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H110" s="39"/>
+      <c r="H110" s="39">
+        <v>3</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="39">
-        <v>5</v>
-      </c>
+      <c r="K110" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="40">
+        <v>42767</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="47" t="s">
-        <v>52</v>
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="40">
+        <v>42795</v>
       </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
-      <c r="E112" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
-      <c r="I112" s="34"/>
+      <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>42370</v>
+        <v>42826</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5951,9 +5873,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>42401</v>
+        <v>42856</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5971,9 +5893,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>42430</v>
+        <v>42887</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -5991,9 +5913,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>42461</v>
+        <v>42917</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -6011,9 +5933,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>42491</v>
+        <v>42948</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -6031,9 +5953,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>42522</v>
+        <v>42979</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6051,9 +5973,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>42552</v>
+        <v>43009</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
@@ -6071,9 +5993,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>42583</v>
+        <v>43040</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6091,15 +6013,19 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>42614</v>
-      </c>
-      <c r="B121" s="20"/>
+        <v>43070</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C121" s="13">
         <v>1.25</v>
       </c>
-      <c r="D121" s="39"/>
+      <c r="D121" s="39">
+        <v>5</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13">
@@ -6111,31 +6037,35 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40">
-        <v>42644</v>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C122" s="13"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F122" s="20"/>
-      <c r="G122" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>42675</v>
-      </c>
-      <c r="B123" s="20"/>
+        <v>43101</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
@@ -6146,63 +6076,73 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="39">
+        <v>1</v>
+      </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K123" s="48">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>42705</v>
+        <v>43132</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
       </c>
-      <c r="D124" s="39">
-        <v>5</v>
-      </c>
+      <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H124" s="39"/>
+      <c r="H124" s="39">
+        <v>1</v>
+      </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="K124" s="48">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="40">
+        <v>43160</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
-      <c r="E125" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H125" s="39">
+        <v>2</v>
+      </c>
+      <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K125" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>42736</v>
+        <v>43191</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
@@ -6215,19 +6155,21 @@
         <v>1.25</v>
       </c>
       <c r="H126" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>42767</v>
-      </c>
-      <c r="B127" s="20"/>
+        <v>43221</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C127" s="13">
         <v>1.25</v>
       </c>
@@ -6238,14 +6180,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H127" s="39"/>
+      <c r="H127" s="39">
+        <v>2</v>
+      </c>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K127" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>42795</v>
+        <v>43252</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6263,9 +6209,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>42826</v>
+        <v>43282</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -6283,11 +6229,13 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>42856</v>
-      </c>
-      <c r="B130" s="20"/>
+        <v>43313</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
@@ -6298,16 +6246,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="39">
+        <v>1</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K130" s="48">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>42887</v>
-      </c>
-      <c r="B131" s="20"/>
+        <v>43344</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
@@ -6318,16 +6272,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H131" s="39"/>
+      <c r="H131" s="39">
+        <v>2</v>
+      </c>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K131" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>42917</v>
-      </c>
-      <c r="B132" s="20"/>
+        <v>43374</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C132" s="13">
         <v>1.25</v>
       </c>
@@ -6338,34 +6298,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H132" s="39"/>
+      <c r="H132" s="39">
+        <v>2</v>
+      </c>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40">
-        <v>42948</v>
-      </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K132" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="13"/>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H133" s="39"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39">
+        <v>2</v>
+      </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K133" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>42979</v>
+        <v>43405</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -6383,15 +6349,19 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>43009</v>
-      </c>
-      <c r="B135" s="20"/>
+        <v>43435</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C135" s="13">
         <v>1.25</v>
       </c>
-      <c r="D135" s="39"/>
+      <c r="D135" s="39">
+        <v>5</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
       <c r="G135" s="13">
@@ -6403,88 +6373,88 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40">
-        <v>43040</v>
-      </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="13"/>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H136" s="39"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39">
+        <v>1</v>
+      </c>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40">
-        <v>43070</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C137" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D137" s="39">
-        <v>5</v>
-      </c>
-      <c r="E137" s="9"/>
+      <c r="K136" s="48">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F137" s="20"/>
-      <c r="G137" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D138" s="39"/>
-      <c r="E138" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E138" s="9"/>
       <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="G138" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H138" s="39">
+        <v>2</v>
+      </c>
+      <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40">
-        <v>43101</v>
-      </c>
+      <c r="K138" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C139" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C139" s="13"/>
       <c r="D139" s="39"/>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H139" s="39">
         <v>1</v>
@@ -6492,38 +6462,34 @@
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
       <c r="K139" s="48">
-        <v>43143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40">
-        <v>43132</v>
-      </c>
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C140" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D140" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39">
+        <v>2</v>
+      </c>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H140" s="39">
-        <v>1</v>
-      </c>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="48">
-        <v>43146</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K140" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>43160</v>
+        <v>43497</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>67</v>
@@ -6544,12 +6510,12 @@
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>43191</v>
+        <v>43525</v>
       </c>
       <c r="B142" s="20" t="s">
         <v>67</v>
@@ -6570,60 +6536,60 @@
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="40">
-        <v>43221</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C143" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C143" s="13"/>
       <c r="D143" s="39"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H143" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="40">
-        <v>43252</v>
-      </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K143" s="48">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" s="13"/>
       <c r="D144" s="39"/>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H144" s="39"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39">
+        <v>1</v>
+      </c>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="48">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>43282</v>
-      </c>
-      <c r="B145" s="20"/>
+        <v>43556</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C145" s="13">
         <v>1.25</v>
       </c>
@@ -6634,27 +6600,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H145" s="39"/>
+      <c r="H145" s="39">
+        <v>2</v>
+      </c>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="20"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="40">
-        <v>43313</v>
-      </c>
+      <c r="K145" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C146" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C146" s="13"/>
       <c r="D146" s="39"/>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H146" s="39">
         <v>1</v>
@@ -6662,16 +6628,14 @@
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
       <c r="K146" s="48">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>43344</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>43586</v>
+      </c>
+      <c r="B147" s="20"/>
       <c r="C147" s="13">
         <v>1.25</v>
       </c>
@@ -6682,22 +6646,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H147" s="39">
-        <v>2</v>
-      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>43374</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="B148" s="20"/>
       <c r="C148" s="13">
         <v>1.25</v>
       </c>
@@ -6708,42 +6666,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H148" s="39">
-        <v>2</v>
-      </c>
+      <c r="H148" s="39"/>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="40"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40">
+        <v>43647</v>
+      </c>
       <c r="B149" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C149" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C149" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D149" s="39"/>
       <c r="E149" s="9"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G149" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H149" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K149" s="48">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>43405</v>
-      </c>
-      <c r="B150" s="20"/>
+        <v>43678</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C150" s="13">
         <v>1.25</v>
       </c>
@@ -6754,23 +6714,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H150" s="39"/>
+      <c r="H150" s="39">
+        <v>1</v>
+      </c>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K150" s="48">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>43435</v>
+        <v>43709</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
       </c>
       <c r="D151" s="39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
@@ -6781,12 +6745,14 @@
       <c r="H151" s="39"/>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K151" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -6797,43 +6763,41 @@
         <v/>
       </c>
       <c r="H152" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="48">
-        <v>43462</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B153" s="20"/>
+      <c r="K152" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C153" s="13"/>
       <c r="D153" s="39"/>
-      <c r="E153" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E153" s="9"/>
       <c r="F153" s="20"/>
       <c r="G153" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H153" s="39"/>
-      <c r="I153" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="H153" s="39">
+        <v>3</v>
+      </c>
+      <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K153" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>43466</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>43739</v>
+      </c>
+      <c r="B154" s="20"/>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
@@ -6844,27 +6808,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H154" s="39">
-        <v>2</v>
-      </c>
+      <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="40"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="40">
+        <v>43770</v>
+      </c>
       <c r="B155" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C155" s="13"/>
+      <c r="C155" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D155" s="39"/>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G155" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H155" s="39">
         <v>1</v>
@@ -6872,18 +6836,16 @@
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
       <c r="K155" s="48">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C156" s="13"/>
-      <c r="D156" s="39">
-        <v>2</v>
-      </c>
+      <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
       <c r="G156" s="13" t="str">
@@ -6894,25 +6856,21 @@
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="40">
-        <v>43497</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C157" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C157" s="13"/>
       <c r="D157" s="39"/>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
-      <c r="G157" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H157" s="39">
         <v>2</v>
@@ -6920,86 +6878,84 @@
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
       <c r="K157" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>43525</v>
+        <v>43800</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
       </c>
-      <c r="D158" s="39"/>
+      <c r="D158" s="39">
+        <v>1</v>
+      </c>
       <c r="E158" s="9"/>
       <c r="F158" s="20"/>
       <c r="G158" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H158" s="39">
-        <v>2</v>
-      </c>
+      <c r="H158" s="39"/>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="40"/>
-      <c r="B159" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="20"/>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
-      <c r="E159" s="9"/>
+      <c r="E159" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F159" s="20"/>
       <c r="G159" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H159" s="39">
-        <v>1</v>
-      </c>
-      <c r="I159" s="9"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J159" s="11"/>
-      <c r="K159" s="48">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="40"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="40">
+        <v>43831</v>
+      </c>
       <c r="B160" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C160" s="13"/>
+        <v>139</v>
+      </c>
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D160" s="39"/>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H160" s="39">
-        <v>1</v>
-      </c>
+      <c r="G160" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="48">
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K160" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>43556</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="B161" s="20"/>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
@@ -7010,40 +6966,34 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H161" s="39">
-        <v>2</v>
-      </c>
+      <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="40"/>
-      <c r="B162" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C162" s="13"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H162" s="39">
-        <v>1</v>
-      </c>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="48">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>43586</v>
+        <v>43922</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13">
@@ -7061,9 +7011,9 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>43617</v>
+        <v>43952</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
@@ -7081,12 +7031,12 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>43647</v>
+        <v>43983</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
@@ -7099,30 +7049,26 @@
         <v>1.25</v>
       </c>
       <c r="H165" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="48">
-        <v>43697</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="40">
-        <v>43678</v>
-      </c>
+      <c r="K165" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C166" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C166" s="13"/>
       <c r="D166" s="39"/>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H166" s="39">
         <v>1</v>
@@ -7130,36 +7076,36 @@
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
       <c r="K166" s="48">
-        <v>43704</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
-        <v>43709</v>
+        <v>44013</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C167" s="13">
         <v>1.25</v>
       </c>
-      <c r="D167" s="39">
-        <v>4</v>
-      </c>
+      <c r="D167" s="39"/>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
       <c r="G167" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H167" s="39"/>
+      <c r="H167" s="39">
+        <v>1</v>
+      </c>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K167" s="48">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>67</v>
@@ -7178,36 +7124,42 @@
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="40"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="40">
+        <v>44044</v>
+      </c>
       <c r="B169" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C169" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D169" s="39"/>
       <c r="E169" s="9"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H169" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
       <c r="K169" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
-        <v>43739</v>
-      </c>
-      <c r="B170" s="20"/>
+        <v>44075</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C170" s="13">
         <v>1.25</v>
       </c>
@@ -7218,18 +7170,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H170" s="39"/>
+      <c r="H170" s="39">
+        <v>1</v>
+      </c>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K170" s="48">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
-        <v>43770</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="B171" s="20"/>
       <c r="C171" s="13">
         <v>1.25</v>
       </c>
@@ -7240,110 +7194,102 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H171" s="39">
-        <v>1</v>
-      </c>
+      <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="48">
-        <v>43787</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="40"/>
-      <c r="B172" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C172" s="13"/>
+      <c r="K171" s="20"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="40"/>
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="40">
+        <v>44166</v>
+      </c>
       <c r="B173" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="39"/>
+        <v>119</v>
+      </c>
+      <c r="C173" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D173" s="39">
+        <v>5</v>
+      </c>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H173" s="39">
-        <v>2</v>
-      </c>
+      <c r="G173" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C174" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D174" s="39">
-        <v>1</v>
-      </c>
-      <c r="E174" s="9"/>
+      <c r="K173" s="20"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F174" s="20"/>
-      <c r="G174" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H174" s="39"/>
-      <c r="I174" s="9"/>
+      <c r="I174" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="47" t="s">
-        <v>48</v>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="40">
+        <v>44197</v>
       </c>
       <c r="B175" s="20"/>
-      <c r="C175" s="13"/>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D175" s="39"/>
-      <c r="E175" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G175" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H175" s="39"/>
-      <c r="I175" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I175" s="9"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>162</v>
-      </c>
+        <v>44228</v>
+      </c>
+      <c r="B176" s="20"/>
       <c r="C176" s="13">
         <v>1.25</v>
       </c>
@@ -7357,13 +7303,11 @@
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K176" s="20"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>43862</v>
+        <v>44256</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -7381,9 +7325,9 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>43891</v>
+        <v>44287</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13">
@@ -7401,9 +7345,9 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>43922</v>
+        <v>44317</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -7421,9 +7365,9 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>43952</v>
+        <v>44348</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
@@ -7441,134 +7385,112 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>43983</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>164</v>
-      </c>
+        <v>44378</v>
+      </c>
+      <c r="B181" s="15"/>
       <c r="C181" s="13">
         <v>1.25</v>
       </c>
-      <c r="D181" s="39"/>
+      <c r="D181" s="42"/>
       <c r="E181" s="9"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H181" s="39">
-        <v>2</v>
-      </c>
+      <c r="F181" s="15"/>
+      <c r="G181" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H181" s="42"/>
       <c r="I181" s="9"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="40"/>
-      <c r="B182" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C182" s="13"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="15"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B182" s="20"/>
+      <c r="C182" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D182" s="39"/>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
-      <c r="G182" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H182" s="39">
-        <v>1</v>
-      </c>
+      <c r="G182" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H182" s="39"/>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="48">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>44013</v>
-      </c>
-      <c r="B183" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>44440</v>
+      </c>
+      <c r="B183" s="20"/>
       <c r="C183" s="13">
         <v>1.25</v>
       </c>
       <c r="D183" s="39"/>
       <c r="E183" s="9"/>
       <c r="F183" s="20"/>
-      <c r="G183" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H183" s="39">
-        <v>1</v>
-      </c>
+      <c r="G183" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H183" s="39"/>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="48">
-        <v>44020</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="40"/>
-      <c r="B184" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C184" s="13"/>
+      <c r="K183" s="20"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D184" s="39"/>
       <c r="E184" s="9"/>
       <c r="F184" s="20"/>
-      <c r="G184" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H184" s="39">
-        <v>2</v>
-      </c>
+      <c r="G184" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H184" s="39"/>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>44044</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B185" s="20"/>
       <c r="C185" s="13">
         <v>1.25</v>
       </c>
       <c r="D185" s="39"/>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H185" s="39">
-        <v>2</v>
-      </c>
+      <c r="G185" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>44075</v>
+        <v>44531</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -7576,75 +7498,71 @@
       <c r="D186" s="39"/>
       <c r="E186" s="9"/>
       <c r="F186" s="20"/>
-      <c r="G186" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H186" s="39">
-        <v>1</v>
-      </c>
+      <c r="G186" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="48">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D187" s="39"/>
+      <c r="K186" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="40"/>
+      <c r="B187" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="39">
+        <v>5</v>
+      </c>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H187" s="39"/>
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="40">
-        <v>44136</v>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="B188" s="20"/>
-      <c r="C188" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C188" s="13"/>
       <c r="D188" s="39"/>
-      <c r="E188" s="9"/>
+      <c r="E188" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F188" s="20"/>
-      <c r="G188" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G188" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H188" s="39"/>
-      <c r="I188" s="9"/>
+      <c r="I188" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B189" s="20" t="s">
-        <v>142</v>
-      </c>
+        <v>44562</v>
+      </c>
+      <c r="B189" s="20"/>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
-      <c r="D189" s="39">
-        <v>5</v>
-      </c>
+      <c r="D189" s="39"/>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="13">
+      <c r="G189" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -7653,31 +7571,29 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="47" t="s">
-        <v>47</v>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="40">
+        <v>44593</v>
       </c>
       <c r="B190" s="20"/>
-      <c r="C190" s="13"/>
+      <c r="C190" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D190" s="39"/>
-      <c r="E190" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E190" s="9"/>
       <c r="F190" s="20"/>
-      <c r="G190" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G190" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H190" s="39"/>
-      <c r="I190" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I190" s="9"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>44197</v>
+        <v>44621</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13">
@@ -7686,7 +7602,7 @@
       <c r="D191" s="39"/>
       <c r="E191" s="9"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="13">
+      <c r="G191" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -7695,89 +7611,99 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B192" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C192" s="13">
         <v>1.25</v>
       </c>
       <c r="D192" s="39"/>
       <c r="E192" s="9"/>
       <c r="F192" s="20"/>
-      <c r="G192" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H192" s="39"/>
+      <c r="G192" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H192" s="39">
+        <v>1</v>
+      </c>
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="20"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193" s="40">
-        <v>44256</v>
-      </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K192" s="48">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="40"/>
+      <c r="B193" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C193" s="13"/>
       <c r="D193" s="39"/>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H193" s="39"/>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H193" s="39">
+        <v>2</v>
+      </c>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="20"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194" s="40">
-        <v>44287</v>
-      </c>
-      <c r="B194" s="20"/>
-      <c r="C194" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K193" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="40"/>
+      <c r="B194" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C194" s="13"/>
       <c r="D194" s="39"/>
       <c r="E194" s="9"/>
       <c r="F194" s="20"/>
-      <c r="G194" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G194" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="20"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="40">
-        <v>44317</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K194" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="40"/>
+      <c r="B195" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C195" s="13"/>
       <c r="D195" s="39"/>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H195" s="39"/>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="39">
+        <v>2</v>
+      </c>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="20"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K195" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>44348</v>
+        <v>44682</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13">
@@ -7786,7 +7712,7 @@
       <c r="D196" s="39"/>
       <c r="E196" s="9"/>
       <c r="F196" s="20"/>
-      <c r="G196" s="13">
+      <c r="G196" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -7795,31 +7721,33 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>44378</v>
-      </c>
-      <c r="B197" s="15"/>
+        <v>44713</v>
+      </c>
+      <c r="B197" s="20"/>
       <c r="C197" s="13">
         <v>1.25</v>
       </c>
-      <c r="D197" s="42"/>
+      <c r="D197" s="39"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="15"/>
+      <c r="F197" s="20"/>
       <c r="G197" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H197" s="42"/>
+      <c r="H197" s="39"/>
       <c r="I197" s="9"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="15"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B198" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C198" s="13">
         <v>1.25</v>
       </c>
@@ -7830,16 +7758,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H198" s="39"/>
+      <c r="H198" s="39">
+        <v>4</v>
+      </c>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="20"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K198" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>44440</v>
-      </c>
-      <c r="B199" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C199" s="13">
         <v>1.25</v>
       </c>
@@ -7850,16 +7784,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H199" s="39"/>
+      <c r="H199" s="39">
+        <v>2</v>
+      </c>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="20"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K199" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>44470</v>
-      </c>
-      <c r="B200" s="20"/>
+        <v>44805</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C200" s="13">
         <v>1.25</v>
       </c>
@@ -7870,16 +7810,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H200" s="39"/>
+      <c r="H200" s="39">
+        <v>1</v>
+      </c>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K200" s="48">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B201" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C201" s="13">
         <v>1.25</v>
       </c>
@@ -7890,17 +7836,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H201" s="39"/>
+      <c r="H201" s="39">
+        <v>3</v>
+      </c>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="20"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K201" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -7912,167 +7862,177 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H202" s="39"/>
+      <c r="H202" s="39">
+        <v>1</v>
+      </c>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A203" s="40"/>
+      <c r="K202" s="48">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="40">
+        <v>44896</v>
+      </c>
       <c r="B203" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C203" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="C203" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D203" s="39">
         <v>5</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
-      <c r="G203" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G203" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H203" s="39"/>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A204" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B204" s="20"/>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="40"/>
+      <c r="B204" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="D204" s="39">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E204" s="9"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="41" t="str">
+      <c r="G204" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H204" s="39"/>
-      <c r="I204" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I204" s="9"/>
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A205" s="40">
-        <v>44562</v>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="47" t="s">
+        <v>152</v>
       </c>
       <c r="B205" s="20"/>
-      <c r="C205" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C205" s="13"/>
       <c r="D205" s="39"/>
       <c r="E205" s="9"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G205" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B206" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B206" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C206" s="13">
         <v>1.25</v>
       </c>
       <c r="D206" s="39"/>
       <c r="E206" s="9"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H206" s="39"/>
+      <c r="G206" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H206" s="39">
+        <v>1</v>
+      </c>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="20"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B207" s="20"/>
-      <c r="C207" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K206" s="48">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="40"/>
+      <c r="B207" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C207" s="13"/>
       <c r="D207" s="39"/>
       <c r="E207" s="9"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H207" s="39"/>
+      <c r="G207" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H207" s="39">
+        <v>2</v>
+      </c>
       <c r="I207" s="9"/>
       <c r="J207" s="11"/>
-      <c r="K207" s="20"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" s="40">
-        <v>44652</v>
-      </c>
+      <c r="K207" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C208" s="13">
-        <v>1.25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C208" s="13"/>
       <c r="D208" s="39"/>
       <c r="E208" s="9"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G208" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H208" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
-      <c r="K208" s="48">
-        <v>44648</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209" s="40"/>
+      <c r="K208" s="48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
+        <v>44958</v>
+      </c>
       <c r="B209" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C209" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C209" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D209" s="39"/>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G209" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H209" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K209" s="48">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="39"/>
@@ -8082,17 +8042,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H210" s="39"/>
+      <c r="H210" s="39">
+        <v>1</v>
+      </c>
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
-      <c r="K210" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K210" s="48">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39"/>
@@ -8103,60 +8065,72 @@
         <v/>
       </c>
       <c r="H211" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K211" s="48">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B212" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C212" s="13">
         <v>1.25</v>
       </c>
       <c r="D212" s="39"/>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H212" s="39"/>
+      <c r="G212" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H212" s="39">
+        <v>1</v>
+      </c>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="20"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K212" s="48">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B213" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C213" s="13">
         <v>1.25</v>
       </c>
       <c r="D213" s="39"/>
       <c r="E213" s="9"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H213" s="39"/>
+      <c r="G213" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H213" s="39">
+        <v>2</v>
+      </c>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="20"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K213" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <v>44743</v>
+        <v>45047</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C214" s="13">
         <v>1.25</v>
@@ -8164,77 +8138,69 @@
       <c r="D214" s="39"/>
       <c r="E214" s="9"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="41">
+      <c r="G214" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H214" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" s="40">
-        <v>44774</v>
-      </c>
+      <c r="K214" s="48">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C215" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C215" s="13"/>
       <c r="D215" s="39"/>
       <c r="E215" s="9"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G215" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H215" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
-      <c r="K215" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" s="40">
-        <v>44805</v>
-      </c>
+      <c r="K215" s="48">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C216" s="13">
-        <v>1.25</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C216" s="13"/>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G216" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H216" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="48">
-        <v>44810</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K216" s="48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>44835</v>
+        <v>45078</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -8242,35 +8208,31 @@
       <c r="D217" s="39"/>
       <c r="E217" s="9"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="41">
+      <c r="G217" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H217" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
       <c r="K217" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="40">
-        <v>44866</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C218" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C218" s="13"/>
       <c r="D218" s="39"/>
       <c r="E218" s="9"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G218" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H218" s="39">
         <v>1</v>
@@ -8278,101 +8240,109 @@
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
       <c r="K218" s="48">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="40">
-        <v>44896</v>
-      </c>
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C219" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D219" s="39">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C219" s="13"/>
+      <c r="D219" s="39"/>
       <c r="E219" s="9"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H219" s="39"/>
+      <c r="G219" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H219" s="39">
+        <v>2</v>
+      </c>
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="20"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="40"/>
+      <c r="K219" s="48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="40">
+        <v>45108</v>
+      </c>
       <c r="B220" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C220" s="13"/>
-      <c r="D220" s="39">
-        <v>0.13500000000000001</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C220" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D220" s="39"/>
       <c r="E220" s="9"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H220" s="39"/>
+      <c r="G220" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H220" s="39">
+        <v>1</v>
+      </c>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="20"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A221" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="13"/>
+      <c r="K220" s="48">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C221" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D221" s="39"/>
       <c r="E221" s="9"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H221" s="39"/>
+      <c r="G221" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H221" s="39">
+        <v>1</v>
+      </c>
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
-      <c r="K221" s="20"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222" s="40">
-        <v>44927</v>
-      </c>
+      <c r="K221" s="48">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C222" s="13">
-        <v>1.25</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C222" s="13"/>
       <c r="D222" s="39"/>
       <c r="E222" s="9"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G222" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H222" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="48">
-        <v>44956</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K222" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="39"/>
@@ -8383,66 +8353,66 @@
         <v/>
       </c>
       <c r="H223" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="40"/>
+      <c r="K223" s="48">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="40">
+        <v>45170</v>
+      </c>
       <c r="B224" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C224" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C224" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D224" s="39"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G224" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H224" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
-      <c r="K224" s="48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="40">
-        <v>44958</v>
-      </c>
+      <c r="K224" s="48">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C225" s="13">
-        <v>1.25</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C225" s="13"/>
       <c r="D225" s="39"/>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G225" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H225" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
-      <c r="K225" s="48">
-        <v>44967</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K225" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39"/>
@@ -8453,91 +8423,87 @@
         <v/>
       </c>
       <c r="H226" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="48">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="40"/>
+      <c r="K226" s="48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="40">
+        <v>45200</v>
+      </c>
       <c r="B227" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C227" s="13"/>
-      <c r="D227" s="39"/>
+        <v>169</v>
+      </c>
+      <c r="C227" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D227" s="39">
+        <v>3</v>
+      </c>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H227" s="39">
-        <v>1</v>
-      </c>
+      <c r="G227" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H227" s="39"/>
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
-      <c r="K227" s="48">
-        <v>44974</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="40">
-        <v>44986</v>
-      </c>
+      <c r="K227" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C228" s="13">
-        <v>1.25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C228" s="13"/>
       <c r="D228" s="39"/>
       <c r="E228" s="9"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G228" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H228" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
-      <c r="K228" s="48">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A229" s="40">
-        <v>45017</v>
-      </c>
+      <c r="K228" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C229" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D229" s="39"/>
+        <v>172</v>
+      </c>
+      <c r="C229" s="13"/>
+      <c r="D229" s="39">
+        <v>5</v>
+      </c>
       <c r="E229" s="9"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H229" s="39">
-        <v>2</v>
-      </c>
+      <c r="G229" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H229" s="39"/>
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
       <c r="K229" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="B230" s="20" t="s">
         <v>55</v>
@@ -8558,10 +8524,10 @@
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
       <c r="K230" s="48">
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>55</v>
@@ -8580,13 +8546,13 @@
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
       <c r="K231" s="48">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39"/>
@@ -8597,20 +8563,20 @@
         <v/>
       </c>
       <c r="H232" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K232" s="48">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C233" s="13">
         <v>1.25</v>
@@ -8623,18 +8589,18 @@
         <v>1.25</v>
       </c>
       <c r="H233" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
-      <c r="K233" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K233" s="48">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39"/>
@@ -8644,20 +8610,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H234" s="39">
-        <v>1</v>
-      </c>
+      <c r="H234" s="39"/>
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
-      <c r="K234" s="48">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235" s="40"/>
-      <c r="B235" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K234" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B235" s="20"/>
       <c r="C235" s="13"/>
       <c r="D235" s="39"/>
       <c r="E235" s="9"/>
@@ -8666,72 +8630,62 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H235" s="39">
-        <v>2</v>
-      </c>
+      <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
-      <c r="K235" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C236" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D236" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="C236" s="13"/>
+      <c r="D236" s="39">
+        <v>1</v>
+      </c>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H236" s="39">
-        <v>1</v>
-      </c>
+      <c r="G236" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H236" s="39"/>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="48">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A237" s="40">
-        <v>45139</v>
-      </c>
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C237" s="13">
-        <v>1.25</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C237" s="13"/>
       <c r="D237" s="39"/>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H237" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="48">
-        <v>45153</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A238" s="40"/>
-      <c r="B238" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K237" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B238" s="20"/>
       <c r="C238" s="13"/>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
@@ -8740,390 +8694,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H238" s="39">
-        <v>2</v>
-      </c>
+      <c r="H238" s="39"/>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A239" s="40"/>
-      <c r="B239" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C239" s="13"/>
-      <c r="D239" s="39"/>
+      <c r="K238" s="20"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="49"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="41"/>
+      <c r="D239" s="42"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
+      <c r="F239" s="15"/>
+      <c r="G239" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H239" s="39">
-        <v>1</v>
-      </c>
+      <c r="H239" s="42"/>
       <c r="I239" s="9"/>
-      <c r="J239" s="11"/>
-      <c r="K239" s="48">
-        <v>45163</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A240" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B240" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C240" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D240" s="39"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H240" s="39">
-        <v>1</v>
-      </c>
-      <c r="I240" s="9"/>
-      <c r="J240" s="11"/>
-      <c r="K240" s="48">
-        <v>45174</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="40"/>
-      <c r="B241" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C241" s="13"/>
-      <c r="D241" s="39"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H241" s="39">
-        <v>5</v>
-      </c>
-      <c r="I241" s="9"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="40"/>
-      <c r="B242" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C242" s="13"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="9"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H242" s="39">
-        <v>2</v>
-      </c>
-      <c r="I242" s="9"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A243" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B243" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C243" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D243" s="39">
-        <v>3</v>
-      </c>
-      <c r="E243" s="9"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H243" s="39"/>
-      <c r="I243" s="9"/>
-      <c r="J243" s="11"/>
-      <c r="K243" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A244" s="40"/>
-      <c r="B244" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C244" s="13"/>
-      <c r="D244" s="39"/>
-      <c r="E244" s="9"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H244" s="39">
-        <v>3</v>
-      </c>
-      <c r="I244" s="9"/>
-      <c r="J244" s="11"/>
-      <c r="K244" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="40"/>
-      <c r="B245" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C245" s="13"/>
-      <c r="D245" s="39">
-        <v>5</v>
-      </c>
-      <c r="E245" s="9"/>
-      <c r="F245" s="20"/>
-      <c r="G245" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H245" s="39"/>
-      <c r="I245" s="9"/>
-      <c r="J245" s="11"/>
-      <c r="K245" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B246" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C246" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D246" s="39"/>
-      <c r="E246" s="9"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H246" s="39">
-        <v>1</v>
-      </c>
-      <c r="I246" s="9"/>
-      <c r="J246" s="11"/>
-      <c r="K246" s="48">
-        <v>45239</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247" s="40"/>
-      <c r="B247" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C247" s="13"/>
-      <c r="D247" s="39"/>
-      <c r="E247" s="9"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H247" s="39">
-        <v>1</v>
-      </c>
-      <c r="I247" s="9"/>
-      <c r="J247" s="11"/>
-      <c r="K247" s="48">
-        <v>45247</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248" s="40"/>
-      <c r="B248" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C248" s="13"/>
-      <c r="D248" s="39"/>
-      <c r="E248" s="9"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H248" s="39">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9"/>
-      <c r="J248" s="11"/>
-      <c r="K248" s="48">
-        <v>45258</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B249" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C249" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D249" s="39"/>
-      <c r="E249" s="9"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H249" s="39">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="48">
-        <v>45278</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A250" s="40"/>
-      <c r="B250" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C250" s="13"/>
-      <c r="D250" s="39"/>
-      <c r="E250" s="9"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H250" s="39"/>
-      <c r="I250" s="9"/>
-      <c r="J250" s="11"/>
-      <c r="K250" s="48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A251" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B251" s="20"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="39"/>
-      <c r="E251" s="9"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H251" s="39"/>
-      <c r="I251" s="9"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="20"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A252" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B252" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="39">
-        <v>1</v>
-      </c>
-      <c r="E252" s="9"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H252" s="39"/>
-      <c r="I252" s="9"/>
-      <c r="J252" s="11"/>
-      <c r="K252" s="48">
-        <v>45320</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" s="40"/>
-      <c r="B253" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C253" s="13"/>
-      <c r="D253" s="39"/>
-      <c r="E253" s="9"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H253" s="39">
-        <v>2</v>
-      </c>
-      <c r="I253" s="9"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="39"/>
-      <c r="E254" s="9"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H254" s="39"/>
-      <c r="I254" s="9"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="20"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="49"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="41"/>
-      <c r="D255" s="42"/>
-      <c r="E255" s="9"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H255" s="42"/>
-      <c r="I255" s="9"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="15"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9140,10 +8730,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9166,29 +8756,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9201,7 +8791,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9230,7 +8820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9256,17 +8846,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9287,7 +8880,11 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>116.40999999999998</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9314,7 +8911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9340,7 +8937,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9366,7 +8963,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9392,7 +8989,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9418,7 +9015,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9444,7 +9041,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9470,7 +9067,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9496,7 +9093,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9516,7 +9113,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9536,7 +9133,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9556,7 +9153,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9577,7 +9174,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9598,7 +9195,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9619,7 +9216,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9640,7 +9237,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9661,7 +9258,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9682,7 +9279,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9703,7 +9300,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9724,7 +9321,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9745,7 +9342,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9766,7 +9363,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9787,7 +9384,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9808,7 +9405,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9829,7 +9426,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9850,7 +9447,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9871,7 +9468,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9892,7 +9489,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9913,7 +9510,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9934,7 +9531,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9955,7 +9552,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9976,7 +9573,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9985,7 +9582,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9994,7 +9591,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10003,7 +9600,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10012,7 +9609,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10021,7 +9618,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10030,7 +9627,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10039,7 +9636,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10048,7 +9645,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10057,7 +9654,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10066,7 +9663,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10075,7 +9672,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10084,7 +9681,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10093,7 +9690,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10102,7 +9699,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10111,7 +9708,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10120,7 +9717,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10129,7 +9726,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10138,7 +9735,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10147,7 +9744,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10156,7 +9753,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10165,7 +9762,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10174,7 +9771,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10183,7 +9780,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10192,7 +9789,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10201,7 +9798,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10210,7 +9807,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10219,7 +9816,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10228,7 +9825,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10237,7 +9834,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1433,7 +1433,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1540,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1600,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1666,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1729,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1827,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1886,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1951,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1994,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2255,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2321,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2379,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2445,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2501,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2576,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2619,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2685,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2839,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2902,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,8 +2968,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K239" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K240" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K240"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3347,12 +3347,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K239"/>
+  <dimension ref="A2:K240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675"/>
+      <pane ySplit="3675" topLeftCell="A219" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="K238" sqref="K238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,7 +3527,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>31.75</v>
+        <v>30.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8682,10 +8682,10 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B238" s="20"/>
+      <c r="A238" s="40"/>
+      <c r="B238" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
@@ -8694,26 +8694,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H238" s="39"/>
+      <c r="H238" s="39">
+        <v>1</v>
+      </c>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="20"/>
+      <c r="K238" s="48">
+        <v>45303</v>
+      </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="49"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="41"/>
-      <c r="D239" s="42"/>
+      <c r="A239" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B239" s="20"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="39"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="41" t="str">
+      <c r="F239" s="20"/>
+      <c r="G239" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H239" s="42"/>
+      <c r="H239" s="39"/>
       <c r="I239" s="9"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="15"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="20"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="49"/>
+      <c r="B240" s="15"/>
+      <c r="C240" s="41"/>
+      <c r="D240" s="42"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="42"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8883,7 +8905,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>116.40999999999998</v>
+        <v>115.40999999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/AUDITOR, AILEEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFB3D7-119C-476B-8AEE-26B4A654550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="178">
   <si>
     <t>PERIOD</t>
   </si>
@@ -573,7 +574,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1433,7 +1434,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1477,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1541,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1601,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1667,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1730,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1828,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1887,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1952,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1995,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2070,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2256,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2322,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2380,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2446,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2502,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2577,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2620,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2686,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2742,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2840,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2903,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2952,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2968,26 +2969,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K240" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K240"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K242" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K242" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2999,13 +3000,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3014,14 +3015,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3325,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3335,7 +3336,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3343,34 +3344,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K240"/>
+  <dimension ref="A2:K242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A219" activePane="bottomLeft"/>
+      <pane ySplit="3672" topLeftCell="A231" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K238" sqref="K238"/>
+      <selection pane="bottomLeft" activeCell="C240" sqref="C240:D240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3393,7 +3394,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3414,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3435,7 +3436,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3443,7 +3444,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3456,7 +3457,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3473,7 +3474,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3517,7 +3518,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>84.659999999999982</v>
+        <v>85.909999999999982</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3527,12 +3528,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30.75</v>
+        <v>30</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3554,7 +3555,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3574,7 +3575,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3594,7 +3595,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3614,7 +3615,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40878</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>44</v>
       </c>
@@ -3684,7 +3685,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40909</v>
       </c>
@@ -3704,7 +3705,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>40940</v>
       </c>
@@ -3726,7 +3727,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40969</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>41000</v>
       </c>
@@ -3770,7 +3771,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>41030</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>41061</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>41091</v>
       </c>
@@ -3842,7 +3843,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>41122</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>55</v>
@@ -3890,7 +3891,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41153</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -3938,7 +3939,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>56</v>
@@ -3958,7 +3959,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3974,7 +3975,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -4022,7 +4023,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -4042,7 +4043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4058,7 +4059,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>41214</v>
       </c>
@@ -4078,7 +4079,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>41244</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>64</v>
@@ -4126,7 +4127,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>45</v>
       </c>
@@ -4144,7 +4145,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>41275</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -4194,7 +4195,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>41306</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>56</v>
@@ -4242,7 +4243,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>41334</v>
       </c>
@@ -4266,7 +4267,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>41365</v>
       </c>
@@ -4290,7 +4291,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>67</v>
@@ -4312,7 +4313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>41395</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4360,7 +4361,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>41426</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>41456</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>41487</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>41518</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>78</v>
@@ -4484,7 +4485,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>41548</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>56</v>
@@ -4530,7 +4531,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>79</v>
@@ -4550,7 +4551,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>41579</v>
       </c>
@@ -4574,7 +4575,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>41609</v>
       </c>
@@ -4598,7 +4599,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>54</v>
       </c>
@@ -4616,7 +4617,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>41640</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -4664,7 +4665,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -4688,7 +4689,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>82</v>
@@ -4708,7 +4709,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>67</v>
@@ -4730,7 +4731,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>41671</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>41699</v>
       </c>
@@ -4784,7 +4785,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>41730</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>84</v>
@@ -4830,7 +4831,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>67</v>
@@ -4852,7 +4853,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>41760</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>65</v>
@@ -4900,7 +4901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>95</v>
@@ -4920,7 +4921,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>41791</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>96</v>
@@ -4963,7 +4964,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>41821</v>
       </c>
@@ -4987,7 +4988,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41852</v>
       </c>
@@ -5011,7 +5012,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>41883</v>
       </c>
@@ -5035,7 +5036,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>41913</v>
       </c>
@@ -5059,7 +5060,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>41944</v>
       </c>
@@ -5083,7 +5084,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
@@ -5105,7 +5106,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41974</v>
       </c>
@@ -5129,7 +5130,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>53</v>
       </c>
@@ -5149,7 +5150,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>42005</v>
       </c>
@@ -5173,7 +5174,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>67</v>
@@ -5195,7 +5196,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
         <v>108</v>
       </c>
@@ -5219,7 +5220,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>42064</v>
       </c>
@@ -5241,7 +5242,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>42095</v>
       </c>
@@ -5265,7 +5266,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>42125</v>
       </c>
@@ -5289,7 +5290,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>42156</v>
       </c>
@@ -5313,7 +5314,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>42186</v>
       </c>
@@ -5337,7 +5338,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -5359,7 +5360,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>42217</v>
       </c>
@@ -5383,7 +5384,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>114</v>
@@ -5405,7 +5406,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>42248</v>
       </c>
@@ -5429,7 +5430,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>42278</v>
       </c>
@@ -5453,7 +5454,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>42309</v>
       </c>
@@ -5477,7 +5478,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>42339</v>
       </c>
@@ -5501,7 +5502,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
         <v>52</v>
       </c>
@@ -5521,7 +5522,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>42370</v>
       </c>
@@ -5541,7 +5542,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>42401</v>
       </c>
@@ -5561,7 +5562,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>42430</v>
       </c>
@@ -5581,7 +5582,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>42461</v>
       </c>
@@ -5601,7 +5602,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>42491</v>
       </c>
@@ -5621,7 +5622,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>42522</v>
       </c>
@@ -5641,7 +5642,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>42552</v>
       </c>
@@ -5661,7 +5662,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>42583</v>
       </c>
@@ -5681,7 +5682,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>42614</v>
       </c>
@@ -5701,7 +5702,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>42644</v>
       </c>
@@ -5721,7 +5722,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>42675</v>
       </c>
@@ -5741,7 +5742,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>42705</v>
       </c>
@@ -5765,7 +5766,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>51</v>
       </c>
@@ -5787,7 +5788,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>42736</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>42767</v>
       </c>
@@ -5833,7 +5834,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>42795</v>
       </c>
@@ -5853,7 +5854,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>42826</v>
       </c>
@@ -5873,7 +5874,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>42856</v>
       </c>
@@ -5893,7 +5894,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>42887</v>
       </c>
@@ -5913,7 +5914,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>42917</v>
       </c>
@@ -5933,7 +5934,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42948</v>
       </c>
@@ -5953,7 +5954,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>42979</v>
       </c>
@@ -5973,7 +5974,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>43009</v>
       </c>
@@ -5993,7 +5994,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>43040</v>
       </c>
@@ -6013,7 +6014,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>43070</v>
       </c>
@@ -6037,7 +6038,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>50</v>
       </c>
@@ -6059,7 +6060,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>43101</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>43132</v>
       </c>
@@ -6111,7 +6112,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>43160</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>43191</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>43221</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>43252</v>
       </c>
@@ -6209,7 +6210,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>43282</v>
       </c>
@@ -6229,7 +6230,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>43313</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>43344</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>43374</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>67</v>
@@ -6329,7 +6330,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>43405</v>
       </c>
@@ -6349,7 +6350,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>43435</v>
       </c>
@@ -6373,7 +6374,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>55</v>
@@ -6395,7 +6396,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
         <v>49</v>
       </c>
@@ -6417,7 +6418,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>43466</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>55</v>
@@ -6465,7 +6466,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>78</v>
@@ -6487,7 +6488,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>43497</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>43525</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>55</v>
@@ -6561,7 +6562,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>55</v>
@@ -6583,7 +6584,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>43556</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>55</v>
@@ -6631,7 +6632,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>43586</v>
       </c>
@@ -6651,7 +6652,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>43617</v>
       </c>
@@ -6671,7 +6672,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>43647</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>43678</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>43709</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>67</v>
@@ -6771,7 +6772,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>59</v>
@@ -6793,7 +6794,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>43739</v>
       </c>
@@ -6813,7 +6814,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>43770</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>56</v>
@@ -6859,7 +6860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>67</v>
@@ -6881,7 +6882,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>43800</v>
       </c>
@@ -6905,7 +6906,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>48</v>
       </c>
@@ -6927,7 +6928,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>43831</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>43862</v>
       </c>
@@ -6971,7 +6972,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>43891</v>
       </c>
@@ -6991,7 +6992,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>43922</v>
       </c>
@@ -7011,7 +7012,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>43952</v>
       </c>
@@ -7031,7 +7032,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>43983</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>55</v>
@@ -7079,7 +7080,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>44013</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>67</v>
@@ -7127,7 +7128,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>44044</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>44075</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>44105</v>
       </c>
@@ -7199,7 +7200,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>44136</v>
       </c>
@@ -7219,7 +7220,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>44166</v>
       </c>
@@ -7243,7 +7244,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="47" t="s">
         <v>47</v>
       </c>
@@ -7265,7 +7266,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>44197</v>
       </c>
@@ -7285,7 +7286,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>44228</v>
       </c>
@@ -7305,7 +7306,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>44256</v>
       </c>
@@ -7325,7 +7326,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>44287</v>
       </c>
@@ -7345,7 +7346,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>44317</v>
       </c>
@@ -7365,7 +7366,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>44348</v>
       </c>
@@ -7385,7 +7386,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>44378</v>
       </c>
@@ -7405,7 +7406,7 @@
       <c r="J181" s="12"/>
       <c r="K181" s="15"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>44409</v>
       </c>
@@ -7425,7 +7426,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>44440</v>
       </c>
@@ -7445,7 +7446,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>44470</v>
       </c>
@@ -7465,7 +7466,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>44501</v>
       </c>
@@ -7485,7 +7486,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>44531</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>119</v>
@@ -7529,7 +7530,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="47" t="s">
         <v>46</v>
       </c>
@@ -7551,7 +7552,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>44562</v>
       </c>
@@ -7571,7 +7572,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>44593</v>
       </c>
@@ -7591,7 +7592,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>44621</v>
       </c>
@@ -7611,7 +7612,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>44652</v>
       </c>
@@ -7637,7 +7638,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>67</v>
@@ -7659,7 +7660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>56</v>
@@ -7679,7 +7680,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>67</v>
@@ -7701,7 +7702,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>44682</v>
       </c>
@@ -7721,7 +7722,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>44713</v>
       </c>
@@ -7741,7 +7742,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>44743</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>44774</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>44805</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>44835</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>44866</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>44896</v>
       </c>
@@ -7895,7 +7896,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>167</v>
@@ -7915,7 +7916,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>152</v>
       </c>
@@ -7933,7 +7934,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>44927</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>67</v>
@@ -7981,7 +7982,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>59</v>
@@ -8003,7 +8004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>44958</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>55</v>
@@ -8051,7 +8052,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>55</v>
@@ -8073,7 +8074,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>44986</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>45017</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>45047</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>55</v>
@@ -8173,7 +8174,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>67</v>
@@ -8195,7 +8196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>45078</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>55</v>
@@ -8243,7 +8244,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>67</v>
@@ -8265,7 +8266,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>45108</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>45139</v>
       </c>
@@ -8317,7 +8318,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>67</v>
@@ -8339,7 +8340,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>55</v>
@@ -8361,7 +8362,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>45170</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>165</v>
@@ -8409,7 +8410,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>67</v>
@@ -8431,7 +8432,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>45200</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>59</v>
@@ -8479,7 +8480,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>172</v>
@@ -8501,7 +8502,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>45231</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>55</v>
@@ -8549,7 +8550,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>55</v>
@@ -8571,7 +8572,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>45261</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>61</v>
@@ -8617,7 +8618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="47" t="s">
         <v>164</v>
       </c>
@@ -8635,22 +8636,24 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>45292</v>
       </c>
       <c r="B236" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C236" s="13"/>
+      <c r="C236" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D236" s="39">
         <v>1</v>
       </c>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G236" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H236" s="39"/>
       <c r="I236" s="9"/>
@@ -8659,7 +8662,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>67</v>
@@ -8681,7 +8684,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>55</v>
@@ -8703,11 +8706,11 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B239" s="20"/>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="40"/>
+      <c r="B239" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
@@ -8716,26 +8719,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H239" s="39"/>
+      <c r="H239" s="39">
+        <v>1</v>
+      </c>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
-      <c r="K239" s="20"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="49"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="41"/>
-      <c r="D240" s="42"/>
+      <c r="K239" s="48">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="40"/>
+      <c r="B240" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C240" s="13"/>
+      <c r="D240" s="39"/>
       <c r="E240" s="9"/>
-      <c r="F240" s="15"/>
-      <c r="G240" s="41" t="str">
+      <c r="F240" s="20"/>
+      <c r="G240" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H240" s="42"/>
+      <c r="H240" s="39">
+        <v>1</v>
+      </c>
       <c r="I240" s="9"/>
-      <c r="J240" s="12"/>
-      <c r="K240" s="15"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="48">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B241" s="20"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H241" s="39"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="20"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="49"/>
+      <c r="B242" s="15"/>
+      <c r="C242" s="41"/>
+      <c r="D242" s="42"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="42"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="12"/>
+      <c r="K242" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8752,10 +8799,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8778,7 +8825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8786,21 +8833,21 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8813,7 +8860,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8842,7 +8889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -8868,17 +8915,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>176</v>
       </c>
@@ -8902,10 +8949,10 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.40999999999998</v>
+        <v>115.90999999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8933,7 +8980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8959,7 +9006,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8985,7 +9032,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9011,7 +9058,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9037,7 +9084,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9063,7 +9110,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9089,7 +9136,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9115,7 +9162,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9135,7 +9182,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9155,7 +9202,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9175,7 +9222,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9196,7 +9243,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9217,7 +9264,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9238,7 +9285,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9259,7 +9306,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9280,7 +9327,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9301,7 +9348,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9322,7 +9369,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9343,7 +9390,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9364,7 +9411,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9385,7 +9432,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9406,7 +9453,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9427,7 +9474,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9448,7 +9495,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9469,7 +9516,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9490,7 +9537,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9511,7 +9558,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9532,7 +9579,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9553,7 +9600,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9574,7 +9621,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9595,7 +9642,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9604,7 +9651,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9613,7 +9660,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9622,7 +9669,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9631,7 +9678,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9640,7 +9687,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9649,7 +9696,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9658,7 +9705,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9667,7 +9714,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9676,7 +9723,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9685,7 +9732,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9694,7 +9741,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9703,7 +9750,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9712,7 +9759,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9721,7 +9768,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9730,7 +9777,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9739,7 +9786,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9748,7 +9795,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9757,7 +9804,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9766,7 +9813,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9775,7 +9822,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9784,7 +9831,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9793,7 +9840,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9802,7 +9849,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9811,7 +9858,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9820,7 +9867,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9829,7 +9876,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9838,7 +9885,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9847,7 +9894,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9856,7 +9903,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
